--- a/bot/data/files/to_send/answers_file.xlsx
+++ b/bot/data/files/to_send/answers_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,90 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Дата вопроса</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Ответ</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Дата ответа</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Дал ответ</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Шушпанова Кира из 6З спрашивает:
-как узнать свой код участника на олимпиаду по географии?</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Добрый день. 
-Меню&gt;Олимпиады&gt;Мои олимпиады&gt;выбираем нужную&gt;получить код</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Шушпанова Юлия</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>21</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Анютин Тимур из 4А спрашивает:
-Как сгенерировать ключ для входа в олимпиаду</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Добрый вечер.
-Меню&gt;Олимпиады&gt;Мои олимпиады&gt;выбираем нужную&gt;получить код</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Шушпанова Юлия</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Фоменко Костя из 8К спрашивает:
-Здравствуйте, можно, пожалуйста, при регистрации выдавать ссылку на политику конфиденциальности? :)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>18</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Овчаренко Полина из 6З спрашивает:
-как получить код участника?</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan nan</t>
         </is>
       </c>
     </row>
